--- a/data/lookups/LOOKUP_CREST_PFMA-termRun-subgroup.xlsx
+++ b/data/lookups/LOOKUP_CREST_PFMA-termRun-subgroup.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAVIDSONKA\Documents\ANALYSIS\WCVI_Chinook_Term_Run_Recon\WCVI_CN_TermRunRecon\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAVIDSONKA\Documents\ANALYSIS\WCVI_Chinook_Term_Run_Recon\WCVI_CN_TermRunRecon\data\lookups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A06745-0065-4C98-89B6-CDB7121BB11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4BB086-FFCD-4384-8877-7176F28A7AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{278E89AD-BC8C-482F-A3F3-4E0E6632B6FD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{278E89AD-BC8C-482F-A3F3-4E0E6632B6FD}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>26G</t>
   </si>
@@ -282,17 +282,89 @@
     <t>SUBAREA</t>
   </si>
   <si>
-    <t>Only good for years &gt;= 2022 and PFMAs 23-27 and corridors</t>
-  </si>
-  <si>
     <t>(R) Term Run Rec subgroup</t>
+  </si>
+  <si>
+    <t>20A</t>
+  </si>
+  <si>
+    <t>20B</t>
+  </si>
+  <si>
+    <t>20E</t>
+  </si>
+  <si>
+    <t>Terminal Renfrew</t>
+  </si>
+  <si>
+    <t>21A</t>
+  </si>
+  <si>
+    <t>121C</t>
+  </si>
+  <si>
+    <t>Terminal Nitinat</t>
+  </si>
+  <si>
+    <t>Change log:</t>
+  </si>
+  <si>
+    <t>22A</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Only good for years &gt;= 2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PFMAs 23-27 and corridors</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">KD added terminal renfrew (20) and nitinat (21-22). Now </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>good for PFMAs 20-27 and corridors</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -309,6 +381,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -336,11 +416,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,15 +736,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4A6D92-16A1-4D67-8A31-F717B60BC0AF}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -687,7 +769,20 @@
         <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>45769</v>
+      </c>
+      <c r="B6" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -697,10 +792,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2393D1-CB3F-4A65-BD8B-D4A757DC4C8F}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +809,7 @@
         <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1" s="2"/>
     </row>
@@ -1172,6 +1267,54 @@
       </c>
       <c r="B58" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
